--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/PYTHON TEST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/python-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7291AD-F865-A740-A47A-8CEE26F8E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95241F-AB6C-4D40-8B8F-9C538AD3EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="9680" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{D51DB56B-7B51-EA42-BBD0-FA97459FFF5D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{D51DB56B-7B51-EA42-BBD0-FA97459FFF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC7465E-2AA4-164C-A6B8-443ADC59A85E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140721F1-CA20-5B40-8140-476BAF60A2B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
